--- a/contrabtions to work.xlsx
+++ b/contrabtions to work.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40537030\IdeaProjects\sem_group20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DE010F7-FAF3-4906-AD61-DBAD74E0C73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D1168B-8E4B-46AD-94AC-16C2F31B3ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F86A3A1D-F205-484B-AFDF-5D47176B845C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F86A3A1D-F205-484B-AFDF-5D47176B845C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -158,9 +158,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,19 +477,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>40494132</v>
       </c>
@@ -519,10 +516,14 @@
       <c r="C2" s="4">
         <v>0.25</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>40537030</v>
       </c>
@@ -532,10 +533,14 @@
       <c r="C3" s="4">
         <v>0.25</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>40492068</v>
       </c>
@@ -545,10 +550,14 @@
       <c r="C4" s="4">
         <v>0.25</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>40496253</v>
       </c>
@@ -558,10 +567,14 @@
       <c r="C5" s="4">
         <v>0.25</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
